--- a/webroot/relatorios/mesas/Relatorio.xlsx
+++ b/webroot/relatorios/mesas/Relatorio.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
-    <t>Quantidade de reservas por mesa entre : 16-11-2021 até 16-11-2021</t>
+    <t>Quantidade de reservas por mesa entre : 16/11/2021 até 16/11/2021</t>
   </si>
   <si>
     <t>Mesa</t>
@@ -27,7 +27,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Total de reservas:2</t>
+      <t xml:space="preserve">Total de reservas:4</t>
     </r>
   </si>
 </sst>
@@ -407,10 +407,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -449,10 +449,26 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="B5" s="4" t="inlineStr">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Total de reservas:2</t>
+            <t xml:space="preserve">Total de reservas:4</t>
           </r>
         </is>
       </c>

--- a/webroot/relatorios/mesas/Relatorio.xlsx
+++ b/webroot/relatorios/mesas/Relatorio.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="4">
   <si>
-    <t>Quantidade de reservas por mesa entre : 16/11/2021 até 16/11/2021</t>
+    <t>Quantidade de reservas por mesa entre : 18/11/2021 até 18/11/2021</t>
   </si>
   <si>
     <t>Mesa</t>
@@ -27,7 +27,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Total de reservas:4</t>
+      <t xml:space="preserve">Total de reservas:1</t>
     </r>
   </si>
 </sst>
@@ -407,10 +407,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -434,41 +434,17 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <r>
-            <t xml:space="preserve">Total de reservas:4</t>
+            <t xml:space="preserve">Total de reservas:1</t>
           </r>
         </is>
       </c>
